--- a/src/templates/产品配置-导入模板.xlsx
+++ b/src/templates/产品配置-导入模板.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>型号</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>卖点</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+  <si>
+    <t>产品型号</t>
+  </si>
+  <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>产品名称（英文）</t>
+  </si>
+  <si>
+    <t>产品图片</t>
+  </si>
+  <si>
+    <t>产品卖点</t>
+  </si>
+  <si>
+    <t>产品卖点（英文）</t>
+  </si>
+  <si>
+    <t>产品说明书</t>
   </si>
   <si>
     <t>MOVA-KQZG</t>
@@ -34,16 +43,28 @@
     <t>空气炸锅</t>
   </si>
   <si>
+    <t>KQZG</t>
+  </si>
+  <si>
     <t>http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png</t>
   </si>
   <si>
     <t>炸美食</t>
   </si>
   <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>https://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/7b3aafa38b534ba2a318c0bf8567c925.pdf</t>
+  </si>
+  <si>
     <t>MOVA-XDJ</t>
   </si>
   <si>
     <t>洗地机</t>
+  </si>
+  <si>
+    <t>XDJ</t>
   </si>
   <si>
     <t>给你一个干净的家</t>
@@ -55,8 +76,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -85,6 +106,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -99,16 +127,48 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,16 +179,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,70 +219,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -229,37 +250,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,19 +370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,121 +400,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,6 +441,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -438,17 +498,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,42 +528,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,10 +547,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,140 +559,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -991,68 +1016,99 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="25.2222222222222" customWidth="1"/>
-    <col min="3" max="3" width="110.555555555556" customWidth="1"/>
-    <col min="4" max="4" width="54.7777777777778" customWidth="1"/>
+    <col min="2" max="3" width="25.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="101.444444444444" customWidth="1"/>
+    <col min="5" max="5" width="40.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="32.5555555555556" customWidth="1"/>
+    <col min="7" max="7" width="111.555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png" tooltip="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png"/>
-    <hyperlink ref="C3" r:id="rId1" display="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png" tooltip="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png" tooltip="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png" tooltip="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/7b3aafa38b534ba2a318c0bf8567c925.pdf"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/7b3aafa38b534ba2a318c0bf8567c925.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/src/templates/产品配置-导入模板.xlsx
+++ b/src/templates/产品配置-导入模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>产品型号</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>给你一个干净的家</t>
+  </si>
+  <si>
+    <t>MOVA-XDJ1</t>
+  </si>
+  <si>
+    <t>洗地机1</t>
+  </si>
+  <si>
+    <t>XDJ1</t>
   </si>
 </sst>
 </file>
@@ -75,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -106,7 +115,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,23 +135,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +155,37 @@
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,24 +197,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,61 +207,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,187 +259,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,17 +453,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,15 +473,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,11 +494,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,17 +534,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,10 +556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,16 +568,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,115 +586,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -696,7 +705,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1016,15 +1025,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="15.3333333333333" customWidth="1"/>
     <col min="2" max="3" width="25.2222222222222" customWidth="1"/>
@@ -1103,12 +1112,37 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png" tooltip="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png"/>
     <hyperlink ref="D3" r:id="rId1" display="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png" tooltip="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png"/>
     <hyperlink ref="G2" r:id="rId2" display="https://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/7b3aafa38b534ba2a318c0bf8567c925.pdf"/>
     <hyperlink ref="G3" r:id="rId2" display="https://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/7b3aafa38b534ba2a318c0bf8567c925.pdf"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png" tooltip="http://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/c1589cdfecaf47c9865c050265e640e1.png"/>
+    <hyperlink ref="G4" r:id="rId2" display="https://cook-oss.iot.mova-tech.com/third-party-server/avatar/instructions/7b3aafa38b534ba2a318c0bf8567c925.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
